--- a/pareto/case_studies/strategic_water_treatment_toy_case_study_t10.xlsx
+++ b/pareto/case_studies/strategic_water_treatment_toy_case_study_t10.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352909FC-0BD7-403C-B618-B9C2DEB203AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E04F5B-FA6A-44A1-B4D0-50B6269D3959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15105" yWindow="-16425" windowWidth="29040" windowHeight="15840" tabRatio="834" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="19080" yWindow="-15300" windowWidth="21600" windowHeight="12675" tabRatio="834" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
     <sheet name="Schematic" sheetId="82" r:id="rId2"/>
-    <sheet name="Units" sheetId="103" r:id="rId3"/>
+    <sheet name="Units" sheetId="104" r:id="rId3"/>
     <sheet name="ProductionPads" sheetId="1" r:id="rId4"/>
     <sheet name="ProductionTanks" sheetId="34" state="hidden" r:id="rId5"/>
     <sheet name="CompletionsPads" sheetId="3" r:id="rId6"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="230">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -702,27 +702,15 @@
     <t>Units</t>
   </si>
   <si>
-    <t>Notes on Units</t>
-  </si>
-  <si>
     <t>volume</t>
   </si>
   <si>
-    <t>oil_bbl</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
     <t>42 gallons</t>
   </si>
   <si>
-    <t>koil_bbl</t>
-  </si>
-  <si>
-    <t>1000 oil_bbl</t>
-  </si>
-  <si>
     <t>distance</t>
   </si>
   <si>
@@ -799,6 +787,42 @@
   </si>
   <si>
     <t>meter</t>
+  </si>
+  <si>
+    <t>Unit Description</t>
+  </si>
+  <si>
+    <t>Unit Relationships</t>
+  </si>
+  <si>
+    <t>bbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume units are used to represent water flows (e.g. bbl/day), flow capacities, storage capacity, costs etc. </t>
+  </si>
+  <si>
+    <t>kbbl</t>
+  </si>
+  <si>
+    <t>1000 bbl</t>
+  </si>
+  <si>
+    <t>Distance units are used for defining lengths of pipelines and pipeline expansion costs</t>
+  </si>
+  <si>
+    <t>This unit applies to diameter of pipelines and pipeline expansion costs</t>
+  </si>
+  <si>
+    <t>Concentration unit defines water quality (e.g., TDS concentration)</t>
+  </si>
+  <si>
+    <t>Currency unit defines costs</t>
+  </si>
+  <si>
+    <t>Time units refers to input data relative to time (e.g., water flows in bbl/day)</t>
+  </si>
+  <si>
+    <t>The decision period is the amount of time in a single decision period or discretization (e.g., T01 is 1 week)</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1315,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1435,9 +1459,6 @@
     <xf numFmtId="43" fontId="1" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1478,6 +1499,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4801,10 +4828,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379187BF-9888-4925-A6E2-68572C9DA96E}">
-  <dimension ref="A1:AY12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A02AC1-208C-484B-9337-E5D430A2EDA8}">
+  <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4813,293 +4840,318 @@
     <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="47" width="9.33203125" style="1"/>
-    <col min="48" max="48" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.33203125" style="1"/>
+    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="67"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="68"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="G3" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="70" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="B4" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="71" t="s">
+      <c r="D4" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="F4" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="71"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="76"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="76"/>
+      <c r="AT8" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU8" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="73" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="AV8" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="AW8" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX8" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY8" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ8" s="57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="71" t="s">
+      <c r="AW9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="77"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="AX9" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="AY9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AT10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX10" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="77"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="77"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="AY10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="77"/>
-      <c r="AS8" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT8" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="AU8" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="AV8" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="AW8" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="AX8" s="57" t="s">
+      <c r="AZ10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AY8" s="57" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AU11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AU12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="I9" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="J9" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="AS10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AU10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="AT11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="AT12" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{EDAE6124-6257-493D-8803-B2BF876BFA47}">
-      <formula1>$AU$9:$AU$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{7810500D-51E1-425E-AF4E-1E65095A172A}">
+      <formula1>$AV$9:$AV$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{F5B02299-032E-478E-9DC8-30F2620247B2}">
-      <formula1>$AY$9:$AY$12</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{6C38238B-40E2-4922-BCBA-D1AC6174C2C6}">
+      <formula1>$AZ$9:$AZ$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{4DBCF2B3-14FA-410E-BF7E-BDA53B5C4FCC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{558EAAE0-E588-4540-A6BC-619F6530AB8C}">
+      <formula1>$AY$9:$AY$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{4616E30E-5B8B-4C7A-898C-CC43A99927EA}">
       <formula1>$AX$9:$AX$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{6123FD61-0ED3-4AE1-A60D-338F86D017EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{679DCC0F-FB37-4686-834F-735765A2091A}">
       <formula1>$AW$9:$AW$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{31349F90-BE59-41F5-A532-871EE4902C36}">
-      <formula1>$AV$9:$AV$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{F2616845-875F-4D44-AABB-DAC4711AF92A}">
+      <formula1>$AU$9:$AU$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{E20C25E0-A20B-4404-9980-0DFE935F73B7}">
-      <formula1>$AT$9:$AT$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{5B5A859D-916A-4B80-B2D8-BDF99614D35E}">
-      <formula1>$AS$9:$AS$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{A3AFA90C-85A8-4BE5-8304-1630EA36F377}">
+      <formula1>$AT$9:$AT$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pareto/case_studies/strategic_water_treatment_toy_case_study_t10.xlsx
+++ b/pareto/case_studies/strategic_water_treatment_toy_case_study_t10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruudw\Documents\GitHub\Pareto\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E04F5B-FA6A-44A1-B4D0-50B6269D3959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A69E8A-ADEC-45EF-9F1A-CA97B5A84E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-15300" windowWidth="21600" windowHeight="12675" tabRatio="834" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-28920" yWindow="2130" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="40" activeTab="40" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -37,55 +37,57 @@
     <sheet name="NKA" sheetId="60" r:id="rId22"/>
     <sheet name="NRA" sheetId="61" r:id="rId23"/>
     <sheet name="NSA" sheetId="76" r:id="rId24"/>
-    <sheet name="SNA" sheetId="77" r:id="rId25"/>
-    <sheet name="FCA" sheetId="41" r:id="rId26"/>
-    <sheet name="RCA" sheetId="83" r:id="rId27"/>
-    <sheet name="RNA" sheetId="62" r:id="rId28"/>
-    <sheet name="PCT" sheetId="42" r:id="rId29"/>
-    <sheet name="FCT" sheetId="70" r:id="rId30"/>
-    <sheet name="PKT" sheetId="43" r:id="rId31"/>
-    <sheet name="CKT" sheetId="44" r:id="rId32"/>
-    <sheet name="CCT" sheetId="74" r:id="rId33"/>
-    <sheet name="CST" sheetId="64" r:id="rId34"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId35"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId36"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId37"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId38"/>
-    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId39"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId40"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId41"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId42"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId43"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId44"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId45"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId46"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId47"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId48"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId49"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId50"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId51"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId52"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId53"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId54"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId55"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId56"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId57"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId58"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId59"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId60"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId61"/>
-    <sheet name="PipelineExpansionDistance" sheetId="97" r:id="rId62"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="96" r:id="rId63"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId64"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId65"/>
-    <sheet name="Economics" sheetId="95" r:id="rId66"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId67"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId68"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId69"/>
+    <sheet name="FRA" sheetId="107" r:id="rId25"/>
+    <sheet name="SNA" sheetId="77" r:id="rId26"/>
+    <sheet name="FCA" sheetId="41" r:id="rId27"/>
+    <sheet name="RCA" sheetId="83" r:id="rId28"/>
+    <sheet name="RNA" sheetId="62" r:id="rId29"/>
+    <sheet name="PCT" sheetId="42" r:id="rId30"/>
+    <sheet name="FCT" sheetId="70" r:id="rId31"/>
+    <sheet name="PKT" sheetId="43" r:id="rId32"/>
+    <sheet name="CKT" sheetId="44" r:id="rId33"/>
+    <sheet name="CCT" sheetId="74" r:id="rId34"/>
+    <sheet name="CST" sheetId="64" r:id="rId35"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId36"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId37"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId38"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId39"/>
+    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId40"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId41"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId42"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId43"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId44"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId45"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId46"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId47"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId48"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId49"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId50"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId51"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId52"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId53"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId54"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId55"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId56"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId57"/>
+    <sheet name="TreatmentMaxQuality" sheetId="106" r:id="rId58"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId59"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId60"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId61"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId62"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId63"/>
+    <sheet name="PipelineExpansionDistance" sheetId="97" r:id="rId64"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="96" r:id="rId65"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId66"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId67"/>
+    <sheet name="Economics" sheetId="95" r:id="rId68"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId69"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId70"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId71"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="61" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="61">PipelineExpansionDistance!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="63">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="232">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -823,6 +825,12 @@
   </si>
   <si>
     <t>The decision period is the amount of time in a single decision period or discretization (e.g., T01 is 1 week)</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>K03</t>
   </si>
 </sst>
 </file>
@@ -1941,15 +1949,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1961,7 +1969,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
@@ -1975,7 +1983,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1987,7 +1995,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>13</v>
@@ -2001,7 +2009,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>11</v>
@@ -2015,7 +2023,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>8</v>
@@ -2029,7 +2037,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>9</v>
@@ -2043,7 +2051,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>10</v>
@@ -2057,7 +2065,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>49</v>
@@ -2071,7 +2079,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2083,7 +2091,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>14</v>
@@ -2097,7 +2105,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>12</v>
@@ -2111,7 +2119,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2123,7 +2131,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>15</v>
@@ -2137,7 +2145,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>16</v>
@@ -2151,7 +2159,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>17</v>
@@ -2165,7 +2173,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>18</v>
@@ -2179,7 +2187,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2191,7 +2199,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2203,7 +2211,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>19</v>
@@ -2219,7 +2227,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2231,7 +2239,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>21</v>
@@ -2247,7 +2255,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>22</v>
@@ -2263,7 +2271,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>23</v>
@@ -2279,7 +2287,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>27</v>
@@ -2295,7 +2303,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>29</v>
@@ -2311,7 +2319,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>31</v>
@@ -2327,7 +2335,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>32</v>
@@ -2343,7 +2351,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>35</v>
@@ -2359,7 +2367,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>37</v>
@@ -2378,7 +2386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>40</v>
@@ -2394,7 +2402,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>39</v>
@@ -2410,7 +2418,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>43</v>
@@ -2426,7 +2434,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>45</v>
@@ -2442,7 +2450,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>46</v>
@@ -2458,7 +2466,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2500,30 +2508,30 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2543,7 +2551,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2563,7 +2571,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2583,7 +2591,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2603,7 +2611,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2623,7 +2631,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2658,28 +2666,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2700,7 +2708,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2720,7 +2728,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2740,7 +2748,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2760,7 +2768,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2780,7 +2788,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2800,7 +2808,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2834,30 +2842,30 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>82</v>
       </c>
@@ -2880,7 +2888,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>83</v>
       </c>
@@ -2903,7 +2911,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
@@ -2926,7 +2934,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -2949,7 +2957,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -2972,7 +2980,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>87</v>
       </c>
@@ -2995,7 +3003,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>88</v>
       </c>
@@ -3018,17 +3026,17 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>128</v>
       </c>
@@ -3048,30 +3056,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -3094,7 +3102,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>91</v>
       </c>
@@ -3117,7 +3125,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3151,28 +3159,28 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3193,7 +3201,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3214,7 +3222,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3235,7 +3243,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3256,7 +3264,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3277,7 +3285,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3311,30 +3319,30 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>151</v>
       </c>
@@ -3357,7 +3365,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3378,7 +3386,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3399,7 +3407,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3433,30 +3441,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>143</v>
       </c>
@@ -3479,7 +3487,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3500,7 +3508,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3521,7 +3529,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3555,17 +3563,17 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>157</v>
       </c>
@@ -3603,7 +3611,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>118</v>
       </c>
@@ -3621,7 +3629,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -3639,7 +3647,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -3657,7 +3665,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -3690,17 +3698,17 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -3738,7 +3746,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -3756,7 +3764,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>119</v>
       </c>
@@ -3789,17 +3797,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -3816,7 +3824,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -3825,7 +3833,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>119</v>
       </c>
@@ -3834,7 +3842,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>120</v>
       </c>
@@ -3843,7 +3851,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>121</v>
       </c>
@@ -3862,65 +3870,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F319BCD0-9FF0-4128-B77A-FE703C6CAEA8}">
   <dimension ref="C3:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="37"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="38"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="39"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="39"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="39"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="39"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="39"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="39"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="39"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="39"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="39"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="39"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="39"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="39"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="39"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="39"/>
     </row>
   </sheetData>
@@ -3934,20 +3942,20 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>163</v>
       </c>
@@ -3985,7 +3993,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -4003,7 +4011,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>82</v>
       </c>
@@ -4025,7 +4033,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
@@ -4045,7 +4053,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>84</v>
       </c>
@@ -4065,7 +4073,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>85</v>
       </c>
@@ -4085,7 +4093,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>86</v>
       </c>
@@ -4105,7 +4113,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>87</v>
       </c>
@@ -4127,7 +4135,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
@@ -4147,7 +4155,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>126</v>
       </c>
@@ -4169,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>127</v>
       </c>
@@ -4187,7 +4195,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>128</v>
       </c>
@@ -4220,17 +4228,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>163</v>
       </c>
@@ -4241,77 +4249,77 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>128</v>
       </c>
@@ -4326,24 +4334,24 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B147A77C-3EC6-43F3-933A-7BFD421AB782}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>163</v>
       </c>
@@ -4353,8 +4361,11 @@
       <c r="C2" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -4363,21 +4374,21 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>84</v>
       </c>
@@ -4386,49 +4397,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>128</v>
       </c>
@@ -4450,17 +4464,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>163</v>
       </c>
@@ -4468,49 +4482,49 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
@@ -4518,19 +4532,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>128</v>
       </c>
@@ -4551,21 +4565,21 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="12"/>
     </row>
@@ -4576,30 +4590,67 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D733DD-15F6-4BA7-98C8-CA4605EF1DDD}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="12"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4608,6 +4659,38 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4615,17 +4698,17 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>161</v>
       </c>
@@ -4636,7 +4719,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -4645,7 +4728,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -4654,7 +4737,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>123</v>
       </c>
@@ -4663,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>124</v>
       </c>
@@ -4679,7 +4762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4687,17 +4770,17 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>162</v>
       </c>
@@ -4708,7 +4791,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
@@ -4725,7 +4808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F673B-ABE6-40C2-BA6B-F7AEA69D03F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4733,17 +4816,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>162</v>
       </c>
@@ -4751,77 +4834,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4831,37 +4850,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A02AC1-208C-484B-9337-E5D430A2EDA8}">
   <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.33203125" style="1"/>
-    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.28515625" style="1"/>
+    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>175</v>
       </c>
@@ -4881,7 +4900,7 @@
       <c r="J2" s="65"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>189</v>
       </c>
@@ -4911,7 +4930,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>192</v>
       </c>
@@ -4935,7 +4954,7 @@
       <c r="J4" s="70"/>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>196</v>
       </c>
@@ -4953,7 +4972,7 @@
       <c r="J5" s="74"/>
       <c r="K5" s="76"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>198</v>
       </c>
@@ -4977,7 +4996,7 @@
       <c r="J6" s="74"/>
       <c r="K6" s="76"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>201</v>
       </c>
@@ -5001,7 +5020,7 @@
       <c r="J7" s="74"/>
       <c r="K7" s="76"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>205</v>
       </c>
@@ -5040,7 +5059,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>208</v>
       </c>
@@ -5091,7 +5110,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AT10" s="1" t="s">
         <v>222</v>
       </c>
@@ -5114,7 +5133,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU11" s="1" t="s">
         <v>217</v>
       </c>
@@ -5122,7 +5141,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU12" s="1" t="s">
         <v>194</v>
       </c>
@@ -5160,6 +5179,70 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5167,17 +5250,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>161</v>
       </c>
@@ -5188,7 +5271,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -5197,7 +5280,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -5206,7 +5289,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>123</v>
       </c>
@@ -5215,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>124</v>
       </c>
@@ -5230,7 +5313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5238,17 +5321,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>157</v>
       </c>
@@ -5259,7 +5342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>118</v>
       </c>
@@ -5270,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -5281,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -5292,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -5309,7 +5392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5317,17 +5400,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -5338,7 +5421,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -5349,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>119</v>
       </c>
@@ -5366,7 +5449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5374,17 +5457,17 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -5395,14 +5478,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>119</v>
       </c>
@@ -5415,7 +5498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5423,21 +5506,21 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="12"/>
     </row>
@@ -5447,7 +5530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -5455,17 +5538,17 @@
       <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -5500,7 +5583,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -5523,7 +5606,7 @@
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>119</v>
       </c>
@@ -5546,304 +5629,50 @@
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:U1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="40">
-        <f>5000*7</f>
-        <v>35000</v>
-      </c>
-      <c r="C3" s="40">
-        <f>$B3*(VALUE(RIGHT(C$2,2)))^(-0.21)</f>
-        <v>30258.803095775282</v>
-      </c>
-      <c r="D3" s="40">
-        <f t="shared" ref="D3:K3" si="0">$B3*(VALUE(RIGHT(D$2,2)))^(-0.21)</f>
-        <v>27788.978378196462</v>
-      </c>
-      <c r="E3" s="40">
-        <f t="shared" si="0"/>
-        <v>26159.861851111425</v>
-      </c>
-      <c r="F3" s="40">
-        <f t="shared" si="0"/>
-        <v>24962.285351788229</v>
-      </c>
-      <c r="G3" s="40">
-        <f t="shared" si="0"/>
-        <v>24024.606427960101</v>
-      </c>
-      <c r="H3" s="40">
-        <f t="shared" si="0"/>
-        <v>23259.343684102365</v>
-      </c>
-      <c r="I3" s="40">
-        <f t="shared" si="0"/>
-        <v>22616.174536156115</v>
-      </c>
-      <c r="J3" s="40">
-        <f t="shared" si="0"/>
-        <v>22063.637694396301</v>
-      </c>
-      <c r="K3" s="40">
-        <f t="shared" si="0"/>
-        <v>21580.825065151876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="40">
-        <f>13000*7</f>
-        <v>91000</v>
-      </c>
-      <c r="C4" s="40">
-        <f t="shared" ref="C4:K4" si="1">$B4*(VALUE(RIGHT(C$2,2)))^(-0.35)</f>
-        <v>71397.152908604316</v>
-      </c>
-      <c r="D4" s="40">
-        <f t="shared" si="1"/>
-        <v>61951.090169008989</v>
-      </c>
-      <c r="E4" s="40">
-        <f t="shared" si="1"/>
-        <v>56017.07080719369</v>
-      </c>
-      <c r="F4" s="40">
-        <f t="shared" si="1"/>
-        <v>51808.604067688932</v>
-      </c>
-      <c r="G4" s="40">
-        <f t="shared" si="1"/>
-        <v>48605.840193972173</v>
-      </c>
-      <c r="H4" s="40">
-        <f t="shared" si="1"/>
-        <v>46052.910067251345</v>
-      </c>
-      <c r="I4" s="40">
-        <f t="shared" si="1"/>
-        <v>43950.102966080478</v>
-      </c>
-      <c r="J4" s="40">
-        <f t="shared" si="1"/>
-        <v>42175.138166249249</v>
-      </c>
-      <c r="K4" s="40">
-        <f t="shared" si="1"/>
-        <v>40648.206885737643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="40">
-        <f>8000*7</f>
-        <v>56000</v>
-      </c>
-      <c r="C5" s="40">
-        <f>$B5*(VALUE(RIGHT(C$2,2)))^(-0.25)</f>
-        <v>47090.199254208019</v>
-      </c>
-      <c r="D5" s="40">
-        <f t="shared" ref="D5:K5" si="2">$B5*(VALUE(RIGHT(D$2,2)))^(-0.25)</f>
-        <v>42550.798396489176</v>
-      </c>
-      <c r="E5" s="40">
-        <f t="shared" si="2"/>
-        <v>39597.979746446661</v>
-      </c>
-      <c r="F5" s="40">
-        <f t="shared" si="2"/>
-        <v>37449.457078679632</v>
-      </c>
-      <c r="G5" s="40">
-        <f t="shared" si="2"/>
-        <v>35780.813837791255</v>
-      </c>
-      <c r="H5" s="40">
-        <f t="shared" si="2"/>
-        <v>34428.136565270812</v>
-      </c>
-      <c r="I5" s="40">
-        <f t="shared" si="2"/>
-        <v>33297.799220076187</v>
-      </c>
-      <c r="J5" s="40">
-        <f t="shared" si="2"/>
-        <v>32331.61507461904</v>
-      </c>
-      <c r="K5" s="40">
-        <f t="shared" si="2"/>
-        <v>31491.114210659547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="40">
-        <f>2000*7</f>
-        <v>14000</v>
-      </c>
-      <c r="C6" s="40">
-        <f>$B6*(VALUE(RIGHT(C$2,2)))^(-0.02)</f>
-        <v>13807.257862907029</v>
-      </c>
-      <c r="D6" s="40">
-        <f t="shared" ref="D6:K6" si="3">$B6*(VALUE(RIGHT(D$2,2)))^(-0.02)</f>
-        <v>13695.743400208396</v>
-      </c>
-      <c r="E6" s="40">
-        <f t="shared" si="3"/>
-        <v>13617.169263771997</v>
-      </c>
-      <c r="F6" s="40">
-        <f t="shared" si="3"/>
-        <v>13556.533000158817</v>
-      </c>
-      <c r="G6" s="40">
-        <f t="shared" si="3"/>
-        <v>13507.1900536346</v>
-      </c>
-      <c r="H6" s="40">
-        <f t="shared" si="3"/>
-        <v>13465.611329867192</v>
-      </c>
-      <c r="I6" s="40">
-        <f t="shared" si="3"/>
-        <v>13429.6976705537</v>
-      </c>
-      <c r="J6" s="40">
-        <f t="shared" si="3"/>
-        <v>13398.099091739417</v>
-      </c>
-      <c r="K6" s="40">
-        <f t="shared" si="3"/>
-        <v>13369.896204300103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5853,6 +5682,260 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="40">
+        <f>5000*7</f>
+        <v>35000</v>
+      </c>
+      <c r="C3" s="40">
+        <f>$B3*(VALUE(RIGHT(C$2,2)))^(-0.21)</f>
+        <v>30258.803095775282</v>
+      </c>
+      <c r="D3" s="40">
+        <f t="shared" ref="D3:K3" si="0">$B3*(VALUE(RIGHT(D$2,2)))^(-0.21)</f>
+        <v>27788.978378196462</v>
+      </c>
+      <c r="E3" s="40">
+        <f t="shared" si="0"/>
+        <v>26159.861851111425</v>
+      </c>
+      <c r="F3" s="40">
+        <f t="shared" si="0"/>
+        <v>24962.285351788229</v>
+      </c>
+      <c r="G3" s="40">
+        <f t="shared" si="0"/>
+        <v>24024.606427960101</v>
+      </c>
+      <c r="H3" s="40">
+        <f t="shared" si="0"/>
+        <v>23259.343684102365</v>
+      </c>
+      <c r="I3" s="40">
+        <f t="shared" si="0"/>
+        <v>22616.174536156115</v>
+      </c>
+      <c r="J3" s="40">
+        <f t="shared" si="0"/>
+        <v>22063.637694396301</v>
+      </c>
+      <c r="K3" s="40">
+        <f t="shared" si="0"/>
+        <v>21580.825065151876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40">
+        <f>13000*7</f>
+        <v>91000</v>
+      </c>
+      <c r="C4" s="40">
+        <f t="shared" ref="C4:K4" si="1">$B4*(VALUE(RIGHT(C$2,2)))^(-0.35)</f>
+        <v>71397.152908604316</v>
+      </c>
+      <c r="D4" s="40">
+        <f t="shared" si="1"/>
+        <v>61951.090169008989</v>
+      </c>
+      <c r="E4" s="40">
+        <f t="shared" si="1"/>
+        <v>56017.07080719369</v>
+      </c>
+      <c r="F4" s="40">
+        <f t="shared" si="1"/>
+        <v>51808.604067688932</v>
+      </c>
+      <c r="G4" s="40">
+        <f t="shared" si="1"/>
+        <v>48605.840193972173</v>
+      </c>
+      <c r="H4" s="40">
+        <f t="shared" si="1"/>
+        <v>46052.910067251345</v>
+      </c>
+      <c r="I4" s="40">
+        <f t="shared" si="1"/>
+        <v>43950.102966080478</v>
+      </c>
+      <c r="J4" s="40">
+        <f t="shared" si="1"/>
+        <v>42175.138166249249</v>
+      </c>
+      <c r="K4" s="40">
+        <f t="shared" si="1"/>
+        <v>40648.206885737643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40">
+        <f>8000*7</f>
+        <v>56000</v>
+      </c>
+      <c r="C5" s="40">
+        <f>$B5*(VALUE(RIGHT(C$2,2)))^(-0.25)</f>
+        <v>47090.199254208019</v>
+      </c>
+      <c r="D5" s="40">
+        <f t="shared" ref="D5:K5" si="2">$B5*(VALUE(RIGHT(D$2,2)))^(-0.25)</f>
+        <v>42550.798396489176</v>
+      </c>
+      <c r="E5" s="40">
+        <f t="shared" si="2"/>
+        <v>39597.979746446661</v>
+      </c>
+      <c r="F5" s="40">
+        <f t="shared" si="2"/>
+        <v>37449.457078679632</v>
+      </c>
+      <c r="G5" s="40">
+        <f t="shared" si="2"/>
+        <v>35780.813837791255</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" si="2"/>
+        <v>34428.136565270812</v>
+      </c>
+      <c r="I5" s="40">
+        <f t="shared" si="2"/>
+        <v>33297.799220076187</v>
+      </c>
+      <c r="J5" s="40">
+        <f t="shared" si="2"/>
+        <v>32331.61507461904</v>
+      </c>
+      <c r="K5" s="40">
+        <f t="shared" si="2"/>
+        <v>31491.114210659547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="40">
+        <f>2000*7</f>
+        <v>14000</v>
+      </c>
+      <c r="C6" s="40">
+        <f>$B6*(VALUE(RIGHT(C$2,2)))^(-0.02)</f>
+        <v>13807.257862907029</v>
+      </c>
+      <c r="D6" s="40">
+        <f t="shared" ref="D6:K6" si="3">$B6*(VALUE(RIGHT(D$2,2)))^(-0.02)</f>
+        <v>13695.743400208396</v>
+      </c>
+      <c r="E6" s="40">
+        <f t="shared" si="3"/>
+        <v>13617.169263771997</v>
+      </c>
+      <c r="F6" s="40">
+        <f t="shared" si="3"/>
+        <v>13556.533000158817</v>
+      </c>
+      <c r="G6" s="40">
+        <f t="shared" si="3"/>
+        <v>13507.1900536346</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" si="3"/>
+        <v>13465.611329867192</v>
+      </c>
+      <c r="I6" s="40">
+        <f t="shared" si="3"/>
+        <v>13429.6976705537</v>
+      </c>
+      <c r="J6" s="40">
+        <f t="shared" si="3"/>
+        <v>13398.099091739417</v>
+      </c>
+      <c r="K6" s="40">
+        <f t="shared" si="3"/>
+        <v>13369.896204300103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27E83FA-0F3B-443C-8B3E-ADC37406AEAD}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -5860,19 +5943,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>156</v>
       </c>
@@ -5880,67 +5963,67 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="35"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="35"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="35"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="35"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="35"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="35"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="35"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="35"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="35"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>128</v>
       </c>
@@ -5952,7 +6035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -5960,18 +6043,18 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -6006,7 +6089,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -6036,7 +6119,7 @@
         <v>79705.544719521436</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>119</v>
       </c>
@@ -6063,310 +6146,48 @@
         <v>103416.13072097297</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="34">
-        <v>300000</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="34">
-        <v>300000</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
-        <v>300000</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34">
-        <v>300000</v>
-      </c>
-      <c r="D5" s="34">
-        <v>300000</v>
-      </c>
-      <c r="E5" s="34">
-        <v>300000</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="34">
-        <v>300000</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34">
-        <v>300000</v>
-      </c>
-      <c r="J6" s="34">
-        <v>300000</v>
-      </c>
-      <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34">
-        <v>300000</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34">
-        <v>300000</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34">
-        <v>300000</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34">
-        <v>300000</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34">
-        <v>300000</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34">
-        <v>300000</v>
-      </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34">
-        <v>300000</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34">
-        <v>300000</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34">
-        <v>100000</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34">
-        <v>75000</v>
-      </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K12">
-    <sortCondition ref="A2:A12"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6380,24 +6201,24 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>118</v>
       </c>
@@ -6418,7 +6239,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -6439,12 +6260,12 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
@@ -6457,24 +6278,300 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="34">
+        <v>300000</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="34">
+        <v>300000</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
+        <v>300000</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34">
+        <v>300000</v>
+      </c>
+      <c r="D5" s="34">
+        <v>300000</v>
+      </c>
+      <c r="E5" s="34">
+        <v>300000</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="34">
+        <v>300000</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34">
+        <v>300000</v>
+      </c>
+      <c r="J6" s="34">
+        <v>300000</v>
+      </c>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34">
+        <v>300000</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34">
+        <v>300000</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34">
+        <v>300000</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34">
+        <v>300000</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34">
+        <v>300000</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34">
+        <v>300000</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34">
+        <v>300000</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34">
+        <v>300000</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34">
+        <v>500000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34">
+        <v>75000</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
@@ -6482,7 +6579,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>122</v>
       </c>
@@ -6490,12 +6587,20 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="35">
         <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="1">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>
@@ -6504,7 +6609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -6512,21 +6617,21 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="36"/>
     </row>
@@ -6536,7 +6641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -6544,17 +6649,17 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>162</v>
       </c>
@@ -6562,7 +6667,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
@@ -6576,25 +6681,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>161</v>
       </c>
@@ -6629,7 +6734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -6664,7 +6769,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -6699,7 +6804,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>123</v>
       </c>
@@ -6734,7 +6839,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>124</v>
       </c>
@@ -6769,47 +6874,82 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -6821,7 +6961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -6829,19 +6969,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -6849,7 +6989,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -6857,7 +6997,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>119</v>
       </c>
@@ -6871,7 +7011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -6879,17 +7019,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -6897,7 +7037,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -6911,7 +7051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -6919,17 +7059,17 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>156</v>
       </c>
@@ -6940,7 +7080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>118</v>
       </c>
@@ -6951,7 +7091,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -6962,7 +7102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -6973,7 +7113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -6984,7 +7124,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
@@ -6995,34 +7135,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
@@ -7031,25 +7171,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
@@ -7057,7 +7197,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>122</v>
       </c>
@@ -7065,12 +7205,20 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="32">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -7080,25 +7228,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>162</v>
       </c>
@@ -7106,60 +7254,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="32">
         <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="32">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7176,24 +7276,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
@@ -7214,7 +7314,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -7235,7 +7335,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -7256,7 +7356,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -7277,7 +7377,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -7298,47 +7398,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -7351,6 +7451,54 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -7358,19 +7506,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>156</v>
       </c>
@@ -7387,7 +7535,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -7398,7 +7546,7 @@
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>119</v>
       </c>
@@ -7409,7 +7557,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7418,7 +7566,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -7427,7 +7575,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -7436,7 +7584,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
@@ -7452,25 +7600,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>161</v>
       </c>
@@ -7478,7 +7626,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -7486,7 +7634,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -7494,7 +7642,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>123</v>
       </c>
@@ -7502,12 +7650,20 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>124</v>
       </c>
       <c r="B6" s="32">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7516,7 +7672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -7524,17 +7680,17 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>156</v>
       </c>
@@ -7542,7 +7698,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>118</v>
       </c>
@@ -7550,7 +7706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -7558,7 +7714,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -7566,7 +7722,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -7574,7 +7730,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
@@ -7582,7 +7738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -7590,7 +7746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>67</v>
       </c>
@@ -7598,7 +7754,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>68</v>
       </c>
@@ -7613,7 +7769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -7621,17 +7777,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>164</v>
       </c>
@@ -7639,7 +7795,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -7647,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -7655,7 +7811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -7669,7 +7825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7677,17 +7833,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>165</v>
       </c>
@@ -7695,7 +7851,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>95</v>
       </c>
@@ -7703,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>143</v>
       </c>
@@ -7717,7 +7873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -7725,33 +7881,33 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="35"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="35"/>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="36"/>
     </row>
@@ -7761,7 +7917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7769,17 +7925,17 @@
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>166</v>
       </c>
@@ -7787,7 +7943,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
@@ -7795,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>151</v>
       </c>
@@ -7809,7 +7965,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7B0CBE-EEF4-4E89-85F6-2561983F5B68}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="44">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -7817,17 +8015,17 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>162</v>
       </c>
@@ -7835,145 +8033,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="32">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="34">
-        <v>20</v>
-      </c>
-      <c r="C3" s="34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="34">
-        <v>20</v>
-      </c>
-      <c r="C4" s="34">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7989,30 +8055,30 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>119</v>
       </c>
@@ -8035,7 +8101,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8055,7 +8121,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -8075,7 +8141,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8095,7 +8161,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -8123,6 +8189,149 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="34">
+        <v>20</v>
+      </c>
+      <c r="C3" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="34">
+        <v>20</v>
+      </c>
+      <c r="C4" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8130,17 +8339,17 @@
       <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>162</v>
       </c>
@@ -8151,7 +8360,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
@@ -8168,7 +8377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -8176,19 +8385,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>175</v>
       </c>
@@ -8196,7 +8405,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>174</v>
       </c>
@@ -8209,24 +8418,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9547EF3E-C271-4F2C-A3E7-66F3B3003AB1}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>156</v>
       </c>
@@ -8278,8 +8487,11 @@
       <c r="Q2" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R2" s="33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>118</v>
       </c>
@@ -8332,7 +8544,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -8385,7 +8597,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -8438,7 +8650,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -8491,7 +8703,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
@@ -8544,7 +8756,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -8597,7 +8809,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -8650,7 +8862,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>82</v>
       </c>
@@ -8703,7 +8915,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>83</v>
       </c>
@@ -8756,7 +8968,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>84</v>
       </c>
@@ -8809,7 +9021,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>85</v>
       </c>
@@ -8862,7 +9074,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>86</v>
       </c>
@@ -8915,7 +9127,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>87</v>
       </c>
@@ -8968,7 +9180,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>88</v>
       </c>
@@ -9020,8 +9232,11 @@
       <c r="Q16" s="56" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>126</v>
       </c>
@@ -9074,7 +9289,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>127</v>
       </c>
@@ -9127,7 +9342,7 @@
         <v>21.292999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>128</v>
       </c>
@@ -9180,7 +9395,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>67</v>
       </c>
@@ -9233,7 +9448,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>68</v>
       </c>
@@ -9286,7 +9501,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>123</v>
       </c>
@@ -9339,7 +9554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>124</v>
       </c>
@@ -9392,7 +9607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>81</v>
       </c>
@@ -9443,6 +9658,14 @@
       </c>
       <c r="Q24" s="56">
         <v>30.886050000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9451,7 +9674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26FB909-6686-43AA-8905-776C584646CC}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -9459,17 +9682,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>164</v>
       </c>
@@ -9477,7 +9700,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -9485,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -9493,7 +9716,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -9507,7 +9730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740CECF9-BE1E-49F8-A08D-BC4E1D042422}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -9515,9 +9738,9 @@
       <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -9525,7 +9748,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>156</v>
       </c>
@@ -9542,7 +9765,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>126</v>
       </c>
@@ -9559,7 +9782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
         <v>128</v>
       </c>
@@ -9581,7 +9804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -9589,17 +9812,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>175</v>
       </c>
@@ -9607,7 +9830,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>169</v>
       </c>
@@ -9615,7 +9838,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>168</v>
       </c>
@@ -9628,7 +9851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -9636,17 +9859,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>175</v>
       </c>
@@ -9654,7 +9877,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>177</v>
       </c>
@@ -9662,7 +9885,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>178</v>
       </c>
@@ -9675,7 +9898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0116C540-9873-4846-A6A7-C29068296EE0}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -9683,23 +9906,23 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>183</v>
       </c>
@@ -9707,7 +9930,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>118</v>
       </c>
@@ -9715,7 +9938,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -9723,7 +9946,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -9731,7 +9954,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -9739,7 +9962,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
@@ -9747,7 +9970,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -9761,110 +9984,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4431891-48E2-445E-BEF5-EFA8A88952D4}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="59"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BFA9F4-87E5-4A8C-BA81-50B58EA7DF44}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="62">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="62">
-        <v>150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DB6341-94DE-401B-89F3-66EA9EB6DBB9}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.33203125" style="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>122</v>
       </c>
@@ -9885,7 +10029,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -9906,6 +10050,11 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9913,38 +10062,117 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4431891-48E2-445E-BEF5-EFA8A88952D4}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BFA9F4-87E5-4A8C-BA81-50B58EA7DF44}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="62">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="62">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABFF4F0-1521-4984-985F-ECB7FE3DE71E}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -9967,7 +10195,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>123</v>
       </c>
@@ -9990,7 +10218,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>124</v>
       </c>
@@ -10013,6 +10241,11 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10028,28 +10261,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -10070,7 +10303,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10090,7 +10323,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10110,7 +10343,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -10130,7 +10363,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -10150,7 +10383,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -10170,7 +10403,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/strategic_water_treatment_toy_case_study_t10.xlsx
+++ b/pareto/case_studies/strategic_water_treatment_toy_case_study_t10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruudw\Documents\GitHub\ParetoAndresIPOPT\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1C0DE7-D02D-4A0D-BDFD-1F0CD7402D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64EDA54-33B8-438D-8AFF-C7BA31500DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="5355" windowWidth="19185" windowHeight="10200" tabRatio="834" firstSheet="63" activeTab="63" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-28920" yWindow="2130" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="63" activeTab="70" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="233">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -831,6 +831,9 @@
   </si>
   <si>
     <t>F05</t>
+  </si>
+  <si>
+    <t>Table of max quality for each treatment site and component [mg/L]</t>
   </si>
 </sst>
 </file>
@@ -4337,7 +4340,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4604,7 +4607,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6306,10 +6309,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6571,24 +6574,6 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34">
-        <v>200000</v>
-      </c>
-      <c r="L13" s="34"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K12">
@@ -6605,7 +6590,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6734,7 +6719,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7224,7 +7209,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7653,7 +7638,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8019,7 +8004,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8031,7 +8016,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -8469,22 +8454,22 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9547EF3E-C271-4F2C-A3E7-66F3B3003AB1}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView showZeros="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>156</v>
       </c>
@@ -8536,11 +8521,8 @@
       <c r="Q2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>118</v>
       </c>
@@ -8592,11 +8574,8 @@
       <c r="Q3" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R3" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -8648,11 +8627,8 @@
       <c r="Q4" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R4" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -8704,11 +8680,8 @@
       <c r="Q5" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R5" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -8760,11 +8733,8 @@
       <c r="Q6" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R6" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
@@ -8816,11 +8786,8 @@
       <c r="Q7" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="R7" s="57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -8872,11 +8839,8 @@
       <c r="Q8" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="R8" s="57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -8928,11 +8892,8 @@
       <c r="Q9" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R9" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>82</v>
       </c>
@@ -8984,11 +8945,8 @@
       <c r="Q10" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R10" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>83</v>
       </c>
@@ -9040,11 +8998,8 @@
       <c r="Q11" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R11" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>84</v>
       </c>
@@ -9096,11 +9051,8 @@
       <c r="Q12" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R12" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>85</v>
       </c>
@@ -9152,11 +9104,8 @@
       <c r="Q13" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R13" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>86</v>
       </c>
@@ -9208,11 +9157,8 @@
       <c r="Q14" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R14" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>87</v>
       </c>
@@ -9264,11 +9210,8 @@
       <c r="Q15" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R15" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>88</v>
       </c>
@@ -9320,11 +9263,8 @@
       <c r="Q16" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R16" s="56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>126</v>
       </c>
@@ -9376,9 +9316,8 @@
       <c r="Q17" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R17" s="56"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>127</v>
       </c>
@@ -9430,9 +9369,8 @@
       <c r="Q18" s="56">
         <v>21.292999999999999</v>
       </c>
-      <c r="R18" s="56"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>128</v>
       </c>
@@ -9484,9 +9422,8 @@
       <c r="Q19" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R19" s="56"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>67</v>
       </c>
@@ -9538,9 +9475,8 @@
       <c r="Q20" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R20" s="56"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>68</v>
       </c>
@@ -9592,9 +9528,8 @@
       <c r="Q21" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R21" s="56"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>123</v>
       </c>
@@ -9646,9 +9581,8 @@
       <c r="Q22" s="56">
         <v>26</v>
       </c>
-      <c r="R22" s="56"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>124</v>
       </c>
@@ -9700,9 +9634,8 @@
       <c r="Q23" s="56">
         <v>27</v>
       </c>
-      <c r="R23" s="56"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>81</v>
       </c>
@@ -9754,39 +9687,6 @@
       <c r="Q24" s="56">
         <v>30.886050000000001</v>
       </c>
-      <c r="R24" s="56"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56">
-        <v>10</v>
-      </c>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10110,7 +10010,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10219,8 +10119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BFA9F4-87E5-4A8C-BA81-50B58EA7DF44}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
